--- a/test/singapore/aug.mint.csv.xlsx
+++ b/test/singapore/aug.mint.csv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://broadridge-my.sharepoint.com/personal/john_nazareth_broadridge_com/Documents/personal/projects/gp/groupInXLS/test/singapore/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_9D3411127FC47A2CB398EBF5FB1776024723A6B7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9FDFA11-4FEF-4E95-9635-968A525E68EE}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_9D3411127FC47A2CB398EBF5FB1776024723A6B7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69606EDE-7AC5-4DCA-B48B-A398D173580B}"/>
   <bookViews>
-    <workbookView xWindow="7788" yWindow="588" windowWidth="14160" windowHeight="10512" tabRatio="766" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="766" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="1" r:id="rId1"/>
@@ -31,14 +31,14 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId10"/>
-    <pivotCache cacheId="1" r:id="rId11"/>
-    <pivotCache cacheId="2" r:id="rId12"/>
-    <pivotCache cacheId="3" r:id="rId13"/>
-    <pivotCache cacheId="4" r:id="rId14"/>
-    <pivotCache cacheId="5" r:id="rId15"/>
-    <pivotCache cacheId="6" r:id="rId16"/>
-    <pivotCache cacheId="7" r:id="rId17"/>
+    <pivotCache cacheId="232" r:id="rId10"/>
+    <pivotCache cacheId="233" r:id="rId11"/>
+    <pivotCache cacheId="234" r:id="rId12"/>
+    <pivotCache cacheId="235" r:id="rId13"/>
+    <pivotCache cacheId="236" r:id="rId14"/>
+    <pivotCache cacheId="237" r:id="rId15"/>
+    <pivotCache cacheId="238" r:id="rId16"/>
+    <pivotCache cacheId="239" r:id="rId17"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -916,7 +916,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -928,25 +928,21 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -966,19 +962,12 @@
     </xf>
     <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -987,9 +976,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -999,7 +986,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1011,10 +998,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -3092,7 +3078,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable4" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable4" cacheId="239" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B69:D86" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -3220,7 +3206,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="237" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C12:E19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -3346,7 +3332,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="235" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C6:E8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -3452,7 +3438,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="233" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C12:E15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -3562,7 +3548,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="PivotTable1" cacheId="236" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C9:E14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -3680,7 +3666,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable4" cacheId="234" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B15:D24" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -3775,7 +3761,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0700-000000000000}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0700-000000000000}" name="PivotTable4" cacheId="232" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B24:D33" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -3870,7 +3856,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable4" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable4" cacheId="238" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B6:D8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -4227,24 +4213,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50" t="s">
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="50"/>
+      <c r="R1" s="43"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -7767,10 +7753,10 @@
       <c r="B70" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C70" s="4">
         <v>80</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D70" s="4">
         <v>0</v>
       </c>
       <c r="E70" s="5"/>
@@ -7779,10 +7765,10 @@
       <c r="B71" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C71" s="4">
         <v>292.55</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D71" s="4">
         <v>0</v>
       </c>
       <c r="E71" s="5"/>
@@ -7791,10 +7777,10 @@
       <c r="B72" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72" s="4">
         <v>10.66</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D72" s="4">
         <v>10.66</v>
       </c>
       <c r="E72" s="5"/>
@@ -7804,10 +7790,10 @@
       <c r="B73" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C73" s="4">
         <v>94.11</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D73" s="4">
         <v>14.030000000000001</v>
       </c>
       <c r="E73" s="5"/>
@@ -7816,10 +7802,10 @@
       <c r="B74" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="4">
         <v>97.989999999999966</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D74" s="4">
         <v>61.989999999999995</v>
       </c>
       <c r="E74" s="5"/>
@@ -7828,10 +7814,10 @@
       <c r="B75" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C75" s="4">
         <v>2332.67</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D75" s="4">
         <v>0</v>
       </c>
       <c r="E75" s="5"/>
@@ -7840,10 +7826,10 @@
       <c r="B76" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C76" s="4">
         <v>99.759999999999991</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D76" s="4">
         <v>0</v>
       </c>
       <c r="E76" s="5"/>
@@ -7852,10 +7838,10 @@
       <c r="B77" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C77" s="4">
         <v>50.99</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D77" s="4">
         <v>0</v>
       </c>
       <c r="E77" s="5"/>
@@ -7864,10 +7850,10 @@
       <c r="B78" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C78" s="9">
-        <v>0</v>
-      </c>
-      <c r="D78" s="9">
+      <c r="C78" s="4">
+        <v>0</v>
+      </c>
+      <c r="D78" s="4">
         <v>16.98</v>
       </c>
       <c r="E78" s="5"/>
@@ -7876,10 +7862,10 @@
       <c r="B79" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C79" s="4">
         <v>49.62</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D79" s="4">
         <v>0</v>
       </c>
       <c r="E79" s="5"/>
@@ -7888,73 +7874,73 @@
       <c r="B80" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C80" s="4">
         <v>85.78</v>
       </c>
-      <c r="D80" s="9">
-        <v>0</v>
-      </c>
-      <c r="E80" s="13"/>
+      <c r="D80" s="4">
+        <v>0</v>
+      </c>
+      <c r="E80"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C81" s="4">
         <v>10</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D81" s="4">
         <v>57.25</v>
       </c>
-      <c r="E81" s="13"/>
+      <c r="E81"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C82" s="9">
+      <c r="C82" s="4">
         <v>325.63</v>
       </c>
-      <c r="D82" s="9">
-        <v>0</v>
-      </c>
-      <c r="E82" s="13"/>
+      <c r="D82" s="4">
+        <v>0</v>
+      </c>
+      <c r="E82"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C83" s="9">
+      <c r="C83" s="4">
         <v>6.53</v>
       </c>
-      <c r="D83" s="9">
-        <v>0</v>
-      </c>
-      <c r="E83" s="13"/>
+      <c r="D83" s="4">
+        <v>0</v>
+      </c>
+      <c r="E83"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C84" s="9">
+      <c r="C84" s="4">
         <v>2</v>
       </c>
-      <c r="D84" s="9">
-        <v>0</v>
-      </c>
-      <c r="E84" s="13"/>
+      <c r="D84" s="4">
+        <v>0</v>
+      </c>
+      <c r="E84"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C85" s="9">
+      <c r="C85" s="4">
         <v>34.43</v>
       </c>
-      <c r="D85" s="9">
-        <v>0</v>
-      </c>
-      <c r="E85" s="13"/>
+      <c r="D85" s="4">
+        <v>0</v>
+      </c>
+      <c r="E85"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="3" t="s">
@@ -8010,1050 +7996,1045 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" style="30" customWidth="1"/>
-    <col min="3" max="4" width="9.88671875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="253" width="9.109375" style="10"/>
-    <col min="254" max="254" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="255" max="257" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="258" max="258" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="261" max="263" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="265" max="266" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="267" max="509" width="9.109375" style="10"/>
-    <col min="510" max="510" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="511" max="513" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="514" max="514" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="516" max="516" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="517" max="519" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="521" max="522" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="523" max="765" width="9.109375" style="10"/>
-    <col min="766" max="766" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="767" max="769" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="770" max="770" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="772" max="772" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="773" max="775" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="777" max="778" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="779" max="1021" width="9.109375" style="10"/>
-    <col min="1022" max="1022" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="1023" max="1025" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="1026" max="1026" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1027" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="1028" max="1028" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1031" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1032" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="1033" max="1034" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="1035" max="1277" width="9.109375" style="10"/>
-    <col min="1278" max="1278" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="1279" max="1281" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="1282" max="1282" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1283" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="1284" max="1284" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1287" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1288" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="1289" max="1290" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="1291" max="1533" width="9.109375" style="10"/>
-    <col min="1534" max="1534" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="1535" max="1537" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="1538" max="1538" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1539" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="1540" max="1540" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1543" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1544" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="1545" max="1546" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="1547" max="1789" width="9.109375" style="10"/>
-    <col min="1790" max="1790" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="1791" max="1793" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="1794" max="1794" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="1795" max="1795" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="1796" max="1796" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="1797" max="1799" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1800" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="1801" max="1802" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="1803" max="2045" width="9.109375" style="10"/>
-    <col min="2046" max="2046" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="2047" max="2049" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="2050" max="2050" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2051" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2052" max="2052" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2055" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2056" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="2057" max="2058" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2059" max="2301" width="9.109375" style="10"/>
-    <col min="2302" max="2302" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="2303" max="2305" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="2306" max="2306" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2307" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2308" max="2308" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2311" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2312" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="2313" max="2314" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2315" max="2557" width="9.109375" style="10"/>
-    <col min="2558" max="2558" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="2559" max="2561" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="2562" max="2562" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2563" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2564" max="2564" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2567" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2568" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="2569" max="2570" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2571" max="2813" width="9.109375" style="10"/>
-    <col min="2814" max="2814" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="2815" max="2817" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="2818" max="2818" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2819" max="2819" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2820" max="2820" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2821" max="2823" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2824" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="2825" max="2826" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2827" max="3069" width="9.109375" style="10"/>
-    <col min="3070" max="3070" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3071" max="3073" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="3074" max="3074" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3075" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3076" max="3076" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3079" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3080" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="3081" max="3082" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3083" max="3325" width="9.109375" style="10"/>
-    <col min="3326" max="3326" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3327" max="3329" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="3330" max="3330" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3331" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3332" max="3332" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3335" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3336" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="3337" max="3338" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3339" max="3581" width="9.109375" style="10"/>
-    <col min="3582" max="3582" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3583" max="3585" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="3586" max="3586" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3587" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3588" max="3588" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3591" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3592" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="3593" max="3594" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3595" max="3837" width="9.109375" style="10"/>
-    <col min="3838" max="3838" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3839" max="3841" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="3842" max="3842" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3843" max="3843" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3844" max="3844" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3845" max="3847" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3848" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="3849" max="3850" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3851" max="4093" width="9.109375" style="10"/>
-    <col min="4094" max="4094" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="4095" max="4097" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="4098" max="4098" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4099" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4100" max="4100" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4103" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4104" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="4105" max="4106" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4107" max="4349" width="9.109375" style="10"/>
-    <col min="4350" max="4350" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="4351" max="4353" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="4354" max="4354" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4355" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4356" max="4356" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4359" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4360" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="4361" max="4362" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4363" max="4605" width="9.109375" style="10"/>
-    <col min="4606" max="4606" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="4607" max="4609" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="4610" max="4610" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4611" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4612" max="4612" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4615" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4616" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="4617" max="4618" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4619" max="4861" width="9.109375" style="10"/>
-    <col min="4862" max="4862" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="4863" max="4865" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="4866" max="4866" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4867" max="4867" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4868" max="4868" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4869" max="4871" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4872" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="4873" max="4874" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4875" max="5117" width="9.109375" style="10"/>
-    <col min="5118" max="5118" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="5119" max="5121" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="5122" max="5122" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5123" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5124" max="5124" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5127" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5128" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="5129" max="5130" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5131" max="5373" width="9.109375" style="10"/>
-    <col min="5374" max="5374" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="5375" max="5377" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="5378" max="5378" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5379" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5380" max="5380" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5383" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5384" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="5385" max="5386" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5387" max="5629" width="9.109375" style="10"/>
-    <col min="5630" max="5630" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="5631" max="5633" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="5634" max="5634" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5635" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5636" max="5636" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5639" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5640" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="5641" max="5642" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5643" max="5885" width="9.109375" style="10"/>
-    <col min="5886" max="5886" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="5887" max="5889" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="5890" max="5890" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5891" max="5891" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5892" max="5892" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5893" max="5895" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5896" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="5897" max="5898" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5899" max="6141" width="9.109375" style="10"/>
-    <col min="6142" max="6142" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="6143" max="6145" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="6146" max="6146" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6147" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6148" max="6148" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6151" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6152" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="6153" max="6154" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6155" max="6397" width="9.109375" style="10"/>
-    <col min="6398" max="6398" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="6399" max="6401" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="6402" max="6402" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6403" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6404" max="6404" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6407" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6408" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="6409" max="6410" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6411" max="6653" width="9.109375" style="10"/>
-    <col min="6654" max="6654" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="6655" max="6657" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="6658" max="6658" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6659" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6660" max="6660" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6663" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6664" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="6665" max="6666" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6667" max="6909" width="9.109375" style="10"/>
-    <col min="6910" max="6910" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="6911" max="6913" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="6914" max="6914" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6915" max="6915" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6916" max="6916" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6917" max="6919" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6920" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="6921" max="6922" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6923" max="7165" width="9.109375" style="10"/>
-    <col min="7166" max="7166" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="7167" max="7169" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="7170" max="7170" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7171" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="7172" max="7172" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7175" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7176" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="7177" max="7178" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7179" max="7421" width="9.109375" style="10"/>
-    <col min="7422" max="7422" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="7423" max="7425" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="7426" max="7426" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7427" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="7428" max="7428" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7431" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7432" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="7433" max="7434" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7435" max="7677" width="9.109375" style="10"/>
-    <col min="7678" max="7678" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="7679" max="7681" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="7682" max="7682" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7683" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="7684" max="7684" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7687" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7688" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="7689" max="7690" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7691" max="7933" width="9.109375" style="10"/>
-    <col min="7934" max="7934" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="7935" max="7937" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="7938" max="7938" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7939" max="7939" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="7940" max="7940" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7941" max="7943" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7944" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="7945" max="7946" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7947" max="8189" width="9.109375" style="10"/>
-    <col min="8190" max="8190" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="8191" max="8193" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="8194" max="8194" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8195" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8196" max="8196" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8199" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8200" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="8201" max="8202" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8203" max="8445" width="9.109375" style="10"/>
-    <col min="8446" max="8446" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="8447" max="8449" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="8450" max="8450" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8451" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8452" max="8452" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8455" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8456" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="8457" max="8458" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8459" max="8701" width="9.109375" style="10"/>
-    <col min="8702" max="8702" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="8703" max="8705" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="8706" max="8706" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8707" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8708" max="8708" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8711" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8712" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="8713" max="8714" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8715" max="8957" width="9.109375" style="10"/>
-    <col min="8958" max="8958" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="8959" max="8961" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="8962" max="8962" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8963" max="8963" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8964" max="8964" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8965" max="8967" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8968" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="8969" max="8970" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8971" max="9213" width="9.109375" style="10"/>
-    <col min="9214" max="9214" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="9215" max="9217" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="9218" max="9218" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9219" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9220" max="9220" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9223" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9224" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="9225" max="9226" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="9227" max="9469" width="9.109375" style="10"/>
-    <col min="9470" max="9470" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="9471" max="9473" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="9474" max="9474" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9475" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9476" max="9476" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9479" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9480" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="9481" max="9482" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="9483" max="9725" width="9.109375" style="10"/>
-    <col min="9726" max="9726" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="9727" max="9729" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="9730" max="9730" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9731" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9732" max="9732" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9735" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9736" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="9737" max="9738" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="9739" max="9981" width="9.109375" style="10"/>
-    <col min="9982" max="9982" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="9983" max="9985" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="9986" max="9986" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9987" max="9987" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9988" max="9988" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9989" max="9991" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9992" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="9993" max="9994" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="9995" max="10237" width="9.109375" style="10"/>
-    <col min="10238" max="10238" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="10239" max="10241" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="10242" max="10242" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10243" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="10244" max="10244" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10247" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10248" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="10249" max="10250" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10251" max="10493" width="9.109375" style="10"/>
-    <col min="10494" max="10494" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="10495" max="10497" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="10498" max="10498" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10499" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="10500" max="10500" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10503" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10504" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="10505" max="10506" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10507" max="10749" width="9.109375" style="10"/>
-    <col min="10750" max="10750" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="10751" max="10753" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="10754" max="10754" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10755" max="10755" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="10756" max="10756" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10759" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10760" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="10761" max="10762" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10763" max="11005" width="9.109375" style="10"/>
-    <col min="11006" max="11006" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="11007" max="11009" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="11010" max="11010" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11011" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="11012" max="11012" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11015" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11016" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="11017" max="11018" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="11019" max="11261" width="9.109375" style="10"/>
-    <col min="11262" max="11262" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="11263" max="11265" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="11266" max="11266" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11267" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="11268" max="11268" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11271" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11272" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="11273" max="11274" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="11275" max="11517" width="9.109375" style="10"/>
-    <col min="11518" max="11518" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="11519" max="11521" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="11522" max="11522" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11523" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="11524" max="11524" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11527" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11528" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="11529" max="11530" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="11531" max="11773" width="9.109375" style="10"/>
-    <col min="11774" max="11774" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="11775" max="11777" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="11778" max="11778" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11779" max="11779" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="11780" max="11780" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11781" max="11783" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11784" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="11785" max="11786" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="11787" max="12029" width="9.109375" style="10"/>
-    <col min="12030" max="12030" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="12031" max="12033" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="12034" max="12034" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12035" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="12036" max="12036" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12039" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12040" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="12041" max="12042" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="12043" max="12285" width="9.109375" style="10"/>
-    <col min="12286" max="12286" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="12287" max="12289" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="12290" max="12290" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12291" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="12292" max="12292" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12295" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12296" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="12297" max="12298" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="12299" max="12541" width="9.109375" style="10"/>
-    <col min="12542" max="12542" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="12543" max="12545" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="12546" max="12546" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12547" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="12548" max="12548" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12551" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12552" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="12553" max="12554" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="12555" max="12797" width="9.109375" style="10"/>
-    <col min="12798" max="12798" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="12799" max="12801" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="12802" max="12802" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="12803" max="12803" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="12804" max="12804" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="12805" max="12807" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12808" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="12809" max="12810" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="12811" max="13053" width="9.109375" style="10"/>
-    <col min="13054" max="13054" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="13055" max="13057" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="13058" max="13058" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13059" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13060" max="13060" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13063" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13064" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="13065" max="13066" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="13067" max="13309" width="9.109375" style="10"/>
-    <col min="13310" max="13310" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="13311" max="13313" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="13314" max="13314" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13315" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13316" max="13316" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13319" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13320" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="13321" max="13322" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="13323" max="13565" width="9.109375" style="10"/>
-    <col min="13566" max="13566" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="13567" max="13569" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="13570" max="13570" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13571" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13572" max="13572" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13575" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13576" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="13577" max="13578" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="13579" max="13821" width="9.109375" style="10"/>
-    <col min="13822" max="13822" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="13823" max="13825" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="13826" max="13826" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13827" max="13827" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13828" max="13828" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="13829" max="13831" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13832" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="13833" max="13834" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="13835" max="14077" width="9.109375" style="10"/>
-    <col min="14078" max="14078" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="14079" max="14081" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="14082" max="14082" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14083" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="14084" max="14084" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14087" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14088" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="14089" max="14090" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="14091" max="14333" width="9.109375" style="10"/>
-    <col min="14334" max="14334" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="14335" max="14337" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="14338" max="14338" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14339" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="14340" max="14340" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14343" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14344" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="14345" max="14346" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="14347" max="14589" width="9.109375" style="10"/>
-    <col min="14590" max="14590" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="14591" max="14593" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="14594" max="14594" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14595" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="14596" max="14596" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14599" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14600" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="14601" max="14602" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="14603" max="14845" width="9.109375" style="10"/>
-    <col min="14846" max="14846" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="14847" max="14849" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="14850" max="14850" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="14851" max="14851" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="14852" max="14852" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="14853" max="14855" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14856" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="14857" max="14858" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="14859" max="15101" width="9.109375" style="10"/>
-    <col min="15102" max="15102" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="15103" max="15105" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="15106" max="15106" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15107" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="15108" max="15108" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15111" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15112" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="15113" max="15114" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="15115" max="15357" width="9.109375" style="10"/>
-    <col min="15358" max="15358" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="15359" max="15361" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="15362" max="15362" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15363" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="15364" max="15364" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15367" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15368" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="15369" max="15370" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="15371" max="15613" width="9.109375" style="10"/>
-    <col min="15614" max="15614" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="15615" max="15617" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="15618" max="15618" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15619" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="15620" max="15620" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15623" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15624" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="15625" max="15626" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="15627" max="15869" width="9.109375" style="10"/>
-    <col min="15870" max="15870" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="15871" max="15873" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="15874" max="15874" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15875" max="15875" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="15876" max="15876" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15877" max="15879" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15880" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="15881" max="15882" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="15883" max="16125" width="9.109375" style="10"/>
-    <col min="16126" max="16126" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="16127" max="16129" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="16130" max="16130" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16131" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16132" max="16132" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16135" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16136" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="16137" max="16138" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="16139" max="16384" width="9.109375" style="10"/>
+    <col min="1" max="1" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="26" customWidth="1"/>
+    <col min="3" max="4" width="9.88671875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="253" width="9.109375" style="9"/>
+    <col min="254" max="254" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="255" max="257" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="258" max="258" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="261" max="263" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="265" max="266" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="267" max="509" width="9.109375" style="9"/>
+    <col min="510" max="510" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="511" max="513" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="514" max="514" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="517" max="519" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="521" max="522" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="523" max="765" width="9.109375" style="9"/>
+    <col min="766" max="766" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="767" max="769" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="770" max="770" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="772" max="772" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="773" max="775" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="777" max="778" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="779" max="1021" width="9.109375" style="9"/>
+    <col min="1022" max="1022" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="1023" max="1025" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="1026" max="1026" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1028" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1031" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1034" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1277" width="9.109375" style="9"/>
+    <col min="1278" max="1278" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="1279" max="1281" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="1282" max="1282" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1284" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1287" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1290" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1533" width="9.109375" style="9"/>
+    <col min="1534" max="1534" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="1535" max="1537" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="1538" max="1538" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1540" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1543" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1546" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1789" width="9.109375" style="9"/>
+    <col min="1790" max="1790" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="1791" max="1793" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="1794" max="1794" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1796" max="1796" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1799" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="1801" max="1802" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1803" max="2045" width="9.109375" style="9"/>
+    <col min="2046" max="2046" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="2047" max="2049" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="2050" max="2050" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2052" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2055" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2058" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2301" width="9.109375" style="9"/>
+    <col min="2302" max="2302" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="2303" max="2305" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="2306" max="2306" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2308" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2311" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2314" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2557" width="9.109375" style="9"/>
+    <col min="2558" max="2558" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="2559" max="2561" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="2562" max="2562" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2564" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2567" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2570" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2813" width="9.109375" style="9"/>
+    <col min="2814" max="2814" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="2815" max="2817" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="2818" max="2818" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2820" max="2820" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2823" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="2825" max="2826" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2827" max="3069" width="9.109375" style="9"/>
+    <col min="3070" max="3070" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="3071" max="3073" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="3074" max="3074" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3076" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3079" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3082" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3325" width="9.109375" style="9"/>
+    <col min="3326" max="3326" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="3327" max="3329" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="3330" max="3330" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3332" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3335" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3338" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3581" width="9.109375" style="9"/>
+    <col min="3582" max="3582" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="3583" max="3585" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="3586" max="3586" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3588" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3591" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3594" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3837" width="9.109375" style="9"/>
+    <col min="3838" max="3838" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="3839" max="3841" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="3842" max="3842" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3844" max="3844" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3847" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="3849" max="3850" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3851" max="4093" width="9.109375" style="9"/>
+    <col min="4094" max="4094" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="4095" max="4097" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="4098" max="4098" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4100" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4103" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4106" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4349" width="9.109375" style="9"/>
+    <col min="4350" max="4350" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="4351" max="4353" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="4354" max="4354" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4356" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4359" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4362" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4605" width="9.109375" style="9"/>
+    <col min="4606" max="4606" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="4607" max="4609" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="4610" max="4610" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4612" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4615" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4618" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4861" width="9.109375" style="9"/>
+    <col min="4862" max="4862" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="4863" max="4865" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="4866" max="4866" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4868" max="4868" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4871" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="4873" max="4874" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4875" max="5117" width="9.109375" style="9"/>
+    <col min="5118" max="5118" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="5119" max="5121" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="5122" max="5122" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5124" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5127" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5130" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5373" width="9.109375" style="9"/>
+    <col min="5374" max="5374" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="5375" max="5377" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="5378" max="5378" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5380" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5383" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5386" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5629" width="9.109375" style="9"/>
+    <col min="5630" max="5630" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="5631" max="5633" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="5634" max="5634" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5636" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5639" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5642" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5885" width="9.109375" style="9"/>
+    <col min="5886" max="5886" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="5887" max="5889" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="5890" max="5890" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5892" max="5892" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5895" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="5897" max="5898" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5899" max="6141" width="9.109375" style="9"/>
+    <col min="6142" max="6142" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="6143" max="6145" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="6146" max="6146" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6148" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6151" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6154" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6397" width="9.109375" style="9"/>
+    <col min="6398" max="6398" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="6399" max="6401" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="6402" max="6402" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6404" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6407" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6410" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6653" width="9.109375" style="9"/>
+    <col min="6654" max="6654" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="6655" max="6657" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="6658" max="6658" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6660" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6663" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6666" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6909" width="9.109375" style="9"/>
+    <col min="6910" max="6910" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="6911" max="6913" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="6914" max="6914" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6916" max="6916" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6919" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="6921" max="6922" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6923" max="7165" width="9.109375" style="9"/>
+    <col min="7166" max="7166" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="7167" max="7169" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="7170" max="7170" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7172" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7175" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7178" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7421" width="9.109375" style="9"/>
+    <col min="7422" max="7422" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="7423" max="7425" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="7426" max="7426" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7428" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7431" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7434" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7677" width="9.109375" style="9"/>
+    <col min="7678" max="7678" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="7679" max="7681" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="7682" max="7682" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7684" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7687" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7690" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7933" width="9.109375" style="9"/>
+    <col min="7934" max="7934" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="7935" max="7937" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="7938" max="7938" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7940" max="7940" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7943" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="7945" max="7946" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7947" max="8189" width="9.109375" style="9"/>
+    <col min="8190" max="8190" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="8191" max="8193" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="8194" max="8194" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8196" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8199" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8202" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8445" width="9.109375" style="9"/>
+    <col min="8446" max="8446" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="8447" max="8449" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="8450" max="8450" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8452" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8455" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8458" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8701" width="9.109375" style="9"/>
+    <col min="8702" max="8702" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="8703" max="8705" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="8706" max="8706" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8708" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8711" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8714" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8957" width="9.109375" style="9"/>
+    <col min="8958" max="8958" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="8959" max="8961" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="8962" max="8962" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8964" max="8964" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8967" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="8969" max="8970" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8971" max="9213" width="9.109375" style="9"/>
+    <col min="9214" max="9214" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="9215" max="9217" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="9218" max="9218" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9220" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9223" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9226" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9469" width="9.109375" style="9"/>
+    <col min="9470" max="9470" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="9471" max="9473" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="9474" max="9474" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9476" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9479" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9482" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9725" width="9.109375" style="9"/>
+    <col min="9726" max="9726" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="9727" max="9729" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="9730" max="9730" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9732" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9735" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9738" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9981" width="9.109375" style="9"/>
+    <col min="9982" max="9982" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="9983" max="9985" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="9986" max="9986" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9988" max="9988" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9991" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="9993" max="9994" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9995" max="10237" width="9.109375" style="9"/>
+    <col min="10238" max="10238" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="10239" max="10241" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="10242" max="10242" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10244" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10247" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10250" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10493" width="9.109375" style="9"/>
+    <col min="10494" max="10494" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="10495" max="10497" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="10498" max="10498" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10500" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10503" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10506" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10749" width="9.109375" style="9"/>
+    <col min="10750" max="10750" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="10751" max="10753" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="10754" max="10754" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10756" max="10756" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10759" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="10761" max="10762" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10763" max="11005" width="9.109375" style="9"/>
+    <col min="11006" max="11006" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="11007" max="11009" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="11010" max="11010" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11012" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11015" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11018" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11261" width="9.109375" style="9"/>
+    <col min="11262" max="11262" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="11263" max="11265" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="11266" max="11266" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11268" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11271" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11274" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11517" width="9.109375" style="9"/>
+    <col min="11518" max="11518" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="11519" max="11521" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="11522" max="11522" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11524" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11527" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11530" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11773" width="9.109375" style="9"/>
+    <col min="11774" max="11774" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="11775" max="11777" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="11778" max="11778" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11780" max="11780" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11783" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="11785" max="11786" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11787" max="12029" width="9.109375" style="9"/>
+    <col min="12030" max="12030" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="12031" max="12033" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="12034" max="12034" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12036" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12039" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12042" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12285" width="9.109375" style="9"/>
+    <col min="12286" max="12286" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="12287" max="12289" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="12290" max="12290" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12292" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12295" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12298" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12541" width="9.109375" style="9"/>
+    <col min="12542" max="12542" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="12543" max="12545" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="12546" max="12546" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12548" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12551" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12554" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12797" width="9.109375" style="9"/>
+    <col min="12798" max="12798" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="12799" max="12801" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="12802" max="12802" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12804" max="12804" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12807" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="12809" max="12810" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12811" max="13053" width="9.109375" style="9"/>
+    <col min="13054" max="13054" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="13055" max="13057" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="13058" max="13058" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13060" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13063" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13066" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13309" width="9.109375" style="9"/>
+    <col min="13310" max="13310" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="13311" max="13313" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="13314" max="13314" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13316" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13319" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13322" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13565" width="9.109375" style="9"/>
+    <col min="13566" max="13566" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="13567" max="13569" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="13570" max="13570" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13572" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13575" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13578" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13821" width="9.109375" style="9"/>
+    <col min="13822" max="13822" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="13823" max="13825" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="13826" max="13826" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13828" max="13828" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13831" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="13833" max="13834" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13835" max="14077" width="9.109375" style="9"/>
+    <col min="14078" max="14078" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="14079" max="14081" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="14082" max="14082" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14084" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14087" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14090" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14333" width="9.109375" style="9"/>
+    <col min="14334" max="14334" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="14335" max="14337" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="14338" max="14338" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14340" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14343" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14346" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14589" width="9.109375" style="9"/>
+    <col min="14590" max="14590" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="14591" max="14593" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="14594" max="14594" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14596" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14599" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14602" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14845" width="9.109375" style="9"/>
+    <col min="14846" max="14846" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="14847" max="14849" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="14850" max="14850" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14852" max="14852" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14855" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="14857" max="14858" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14859" max="15101" width="9.109375" style="9"/>
+    <col min="15102" max="15102" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="15103" max="15105" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="15106" max="15106" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15108" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15111" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15114" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15357" width="9.109375" style="9"/>
+    <col min="15358" max="15358" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="15359" max="15361" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="15362" max="15362" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15364" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15367" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15370" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15613" width="9.109375" style="9"/>
+    <col min="15614" max="15614" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="15615" max="15617" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="15618" max="15618" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15620" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15623" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15626" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15869" width="9.109375" style="9"/>
+    <col min="15870" max="15870" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="15871" max="15873" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="15874" max="15874" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15876" max="15876" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15879" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="15881" max="15882" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15883" max="16125" width="9.109375" style="9"/>
+    <col min="16126" max="16126" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="16127" max="16129" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="16130" max="16130" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16132" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16135" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="16137" max="16138" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16384" width="9.109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="45" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="54" t="s">
+      <c r="F1" s="48"/>
+      <c r="G1" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="54" t="s">
+      <c r="H1" s="48"/>
+      <c r="I1" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="55"/>
+      <c r="J1" s="48"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="48" t="s">
+      <c r="F2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="48" t="s">
+      <c r="H2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="36">
         <v>1.37</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="27">
         <f>1/C3</f>
         <v>0.72992700729927007</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="13">
         <v>-122.46</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="13">
         <v>122.46</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="13">
         <v>122.46</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="13">
         <v>110.81</v>
       </c>
-      <c r="I3" s="16">
-        <v>0</v>
-      </c>
-      <c r="J3" s="16">
+      <c r="I3" s="13">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13">
         <v>233.27</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="36">
         <v>1.37</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="27">
         <f t="shared" ref="D4" si="0">1/C4</f>
         <v>0.72992700729927007</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="13">
         <v>31.5</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="13">
         <v>-31.5</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="13">
         <v>166.5</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="13">
         <v>311.98</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="13">
         <v>198</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="13">
         <v>280.48</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="37">
         <v>1.9264110961279137E-2</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="38">
         <f>1/C5</f>
         <v>51.91</v>
       </c>
-      <c r="E5" s="20">
-        <v>0</v>
-      </c>
-      <c r="F5" s="20">
-        <v>0</v>
-      </c>
-      <c r="G5" s="20">
-        <v>0</v>
-      </c>
-      <c r="H5" s="20">
+      <c r="E5" s="16">
+        <v>0</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0</v>
+      </c>
+      <c r="H5" s="16">
         <v>4424</v>
       </c>
-      <c r="I5" s="20">
-        <v>0</v>
-      </c>
-      <c r="J5" s="20">
+      <c r="I5" s="16">
+        <v>0</v>
+      </c>
+      <c r="J5" s="16">
         <v>4424</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="30" t="s">
+    <row r="6" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="36">
         <v>71.48</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="27">
         <f>1/C6</f>
         <v>1.3989927252378288E-2</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-    </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="33"/>
-      <c r="D7" s="34"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D7" s="29"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="str">
+      <c r="A9" s="9" t="str">
         <f>A3</f>
         <v>1.singapore.usd</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="16">
+      <c r="D9" s="39"/>
+      <c r="E9" s="13">
         <f t="shared" ref="E9:G11" si="1">E3 * IF($B3=$A$8,1,$C3)</f>
         <v>-167.77020000000002</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="28">
         <f t="shared" si="1"/>
         <v>167.77020000000002</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="13">
         <f t="shared" si="1"/>
         <v>167.77020000000002</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="28">
         <f>H3 * IF($B3=$A$8,1,$C3)</f>
         <v>151.80970000000002</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="13">
         <f>I3 * IF($B3=$A$8,1,$C3)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="32">
+      <c r="J9" s="28">
         <f t="shared" ref="J9" si="2">J3 * IF($B3=$A$8,1,$C3)</f>
         <v>319.57990000000007</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="str">
+      <c r="A10" s="9" t="str">
         <f>A4</f>
         <v>2.singapore.sgd</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="16">
+      <c r="D10" s="39"/>
+      <c r="E10" s="13">
         <f t="shared" si="1"/>
         <v>31.5</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="28">
         <f t="shared" si="1"/>
         <v>-31.5</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="13">
         <f t="shared" si="1"/>
         <v>166.5</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="28">
         <f t="shared" ref="H10:J11" si="3">H4 * IF($B4=$A$8,1,$C4)</f>
         <v>311.98</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="13">
         <f t="shared" si="3"/>
         <v>198</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="28">
         <f t="shared" si="3"/>
         <v>280.48</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="str">
+      <c r="A11" s="9" t="str">
         <f>A5</f>
         <v>3. singapore.inr</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="16">
+      <c r="D11" s="39"/>
+      <c r="E11" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="28">
         <f t="shared" si="3"/>
         <v>85.224426892698901</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="28">
         <f t="shared" si="3"/>
         <v>85.224426892698901</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="41">
+      <c r="A12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="34">
         <f>SUM(E9:E11)</f>
         <v>-136.27020000000002</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="35">
         <f t="shared" ref="F12:J12" si="4">SUM(F9:F11)</f>
         <v>136.27020000000002</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="34">
         <f t="shared" si="4"/>
         <v>334.27020000000005</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="35">
         <f t="shared" si="4"/>
         <v>549.01412689269898</v>
       </c>
-      <c r="I12" s="41">
+      <c r="I12" s="34">
         <f t="shared" si="4"/>
         <v>198</v>
       </c>
-      <c r="J12" s="42">
+      <c r="J12" s="35">
         <f t="shared" si="4"/>
         <v>685.28432689269903</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="str">
+      <c r="A15" s="9" t="str">
         <f>A9</f>
         <v>1.singapore.usd</v>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="16">
+      <c r="D15" s="39"/>
+      <c r="E15" s="13">
         <f t="shared" ref="E15:G16" si="5">E3 / IF($B3=$A$14,1,$C3)</f>
         <v>-122.46</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="28">
         <f t="shared" si="5"/>
         <v>122.46</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="13">
         <f t="shared" si="5"/>
         <v>122.46</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="28">
         <f>H3 / IF($B3=$A$14,1,$C3)</f>
         <v>110.81</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="13">
         <f>I3 / IF($B3=$A$14,1,$C3)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="32">
+      <c r="J15" s="28">
         <f t="shared" ref="J15" si="6">J3 / IF($B3=$A$14,1,$C3)</f>
         <v>233.27</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="str">
+      <c r="A16" s="9" t="str">
         <f>A10</f>
         <v>2.singapore.sgd</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="41">
         <f>1/C4</f>
         <v>0.72992700729927007</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="16">
+      <c r="D16" s="39"/>
+      <c r="E16" s="13">
         <f>E4 / IF($B4=$A$14,1,$C4)</f>
         <v>22.992700729927005</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="28">
         <f t="shared" si="5"/>
         <v>-22.992700729927005</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="13">
         <f t="shared" si="5"/>
         <v>121.53284671532846</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="28">
         <f>H4 / IF($B4=$A$14,1,$C4)</f>
         <v>227.72262773722628</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="13">
         <f>I4 / IF($B4=$A$14,1,$C4)</f>
         <v>144.52554744525546</v>
       </c>
-      <c r="J16" s="32">
+      <c r="J16" s="28">
         <f>J4 / IF($B4=$A$14,1,$C4)</f>
         <v>204.72992700729927</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="str">
+      <c r="A17" s="9" t="str">
         <f>A11</f>
         <v>3. singapore.inr</v>
       </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="16">
+      <c r="D17" s="39"/>
+      <c r="E17" s="13">
         <f t="shared" ref="E17:J17" si="7">E5 / IF($B6=$A$14,1,$C6)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="28">
         <f t="shared" si="7"/>
         <v>61.891438164521539</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J17" s="32">
+      <c r="J17" s="28">
         <f t="shared" si="7"/>
         <v>61.891438164521539</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="41">
+      <c r="A18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="34">
         <f>SUM(E15:E17)</f>
         <v>-99.467299270072985</v>
       </c>
-      <c r="F18" s="42">
+      <c r="F18" s="35">
         <f t="shared" ref="F18:J18" si="8">SUM(F15:F17)</f>
         <v>99.467299270072985</v>
       </c>
-      <c r="G18" s="41">
+      <c r="G18" s="34">
         <f t="shared" si="8"/>
         <v>243.99284671532845</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H18" s="35">
         <f t="shared" si="8"/>
         <v>400.42406590174784</v>
       </c>
-      <c r="I18" s="41">
+      <c r="I18" s="34">
         <f t="shared" si="8"/>
         <v>144.52554744525546</v>
       </c>
-      <c r="J18" s="42">
+      <c r="J18" s="35">
         <f t="shared" si="8"/>
         <v>499.89136517182084</v>
       </c>
@@ -9080,672 +9061,662 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="10"/>
-    <col min="3" max="3" width="19" style="10" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="10" customWidth="1"/>
-    <col min="5" max="6" width="8.44140625" style="10" customWidth="1"/>
-    <col min="7" max="8" width="9.109375" style="10"/>
-    <col min="9" max="11" width="10.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.109375" style="10"/>
+    <col min="1" max="2" width="9.109375" style="9"/>
+    <col min="3" max="3" width="19" style="9" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="9" customWidth="1"/>
+    <col min="5" max="6" width="8.44140625" style="9" customWidth="1"/>
+    <col min="7" max="8" width="9.109375" style="9"/>
+    <col min="9" max="11" width="10.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56" t="s">
+      <c r="J1" s="49"/>
+      <c r="K1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56" t="s">
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56" t="s">
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="56"/>
-      <c r="S1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
+      <c r="R1" s="49"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="14" t="s">
+      <c r="J2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="14" t="s">
+      <c r="L2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="14" t="s">
+      <c r="O2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
+      <c r="R2" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="12">
         <v>66.33</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="15" t="s">
+      <c r="F3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="I3" s="16">
-        <v>0</v>
-      </c>
-      <c r="J3" s="16">
+      <c r="I3" s="13">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13">
         <v>66.33</v>
       </c>
-      <c r="K3" s="16">
-        <v>0</v>
-      </c>
-      <c r="L3" s="16">
-        <v>0</v>
-      </c>
-      <c r="M3" s="16">
-        <v>0</v>
-      </c>
-      <c r="N3" s="16">
-        <v>0</v>
-      </c>
-      <c r="O3" s="16">
+      <c r="K3" s="13">
+        <v>0</v>
+      </c>
+      <c r="L3" s="13">
+        <v>0</v>
+      </c>
+      <c r="M3" s="13">
+        <v>0</v>
+      </c>
+      <c r="N3" s="13">
+        <v>0</v>
+      </c>
+      <c r="O3" s="13">
         <v>66.33</v>
       </c>
-      <c r="P3" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="16">
-        <v>0</v>
-      </c>
-      <c r="R3" s="16">
+      <c r="P3" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>0</v>
+      </c>
+      <c r="R3" s="13">
         <v>66.33</v>
       </c>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="12">
         <v>20</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16">
-        <v>0</v>
-      </c>
-      <c r="J4" s="16">
+      <c r="F4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
         <v>20</v>
       </c>
-      <c r="K4" s="16">
-        <v>0</v>
-      </c>
-      <c r="L4" s="16">
-        <v>0</v>
-      </c>
-      <c r="M4" s="16">
-        <v>0</v>
-      </c>
-      <c r="N4" s="16">
-        <v>0</v>
-      </c>
-      <c r="O4" s="16">
+      <c r="K4" s="13">
+        <v>0</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0</v>
+      </c>
+      <c r="M4" s="13">
+        <v>0</v>
+      </c>
+      <c r="N4" s="13">
+        <v>0</v>
+      </c>
+      <c r="O4" s="13">
         <v>86.33</v>
       </c>
-      <c r="P4" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="16">
-        <v>0</v>
-      </c>
-      <c r="R4" s="16">
+      <c r="P4" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>0</v>
+      </c>
+      <c r="R4" s="13">
         <v>86.33</v>
       </c>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="12">
         <v>33.799999999999997</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="15" t="s">
+      <c r="F5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="16">
+      <c r="H5" s="12"/>
+      <c r="I5" s="13">
         <v>33.799999999999997</v>
       </c>
-      <c r="J5" s="16">
-        <v>0</v>
-      </c>
-      <c r="K5" s="16">
+      <c r="J5" s="13">
+        <v>0</v>
+      </c>
+      <c r="K5" s="13">
         <v>-33.799999999999997</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="13">
         <v>33.799999999999997</v>
       </c>
-      <c r="M5" s="16">
-        <v>0</v>
-      </c>
-      <c r="N5" s="16">
+      <c r="M5" s="13">
+        <v>0</v>
+      </c>
+      <c r="N5" s="13">
         <v>33.799999999999997</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="13">
         <v>86.33</v>
       </c>
-      <c r="P5" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="16">
-        <v>0</v>
-      </c>
-      <c r="R5" s="16">
+      <c r="P5" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>0</v>
+      </c>
+      <c r="R5" s="13">
         <v>120.13</v>
       </c>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="12">
         <v>77.83</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="15" t="s">
+      <c r="F6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="16">
+      <c r="H6" s="12"/>
+      <c r="I6" s="13">
         <v>77.83</v>
       </c>
-      <c r="J6" s="16">
-        <v>0</v>
-      </c>
-      <c r="K6" s="16">
+      <c r="J6" s="13">
+        <v>0</v>
+      </c>
+      <c r="K6" s="13">
         <v>-111.63</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="13">
         <v>111.63</v>
       </c>
-      <c r="M6" s="16">
-        <v>0</v>
-      </c>
-      <c r="N6" s="16">
+      <c r="M6" s="13">
+        <v>0</v>
+      </c>
+      <c r="N6" s="13">
         <v>111.63</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="13">
         <v>86.33</v>
       </c>
-      <c r="P6" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="16">
-        <v>0</v>
-      </c>
-      <c r="R6" s="16">
+      <c r="P6" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>0</v>
+      </c>
+      <c r="R6" s="13">
         <v>197.96</v>
       </c>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="12">
         <v>4.8899999999999997</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16">
-        <v>0</v>
-      </c>
-      <c r="J7" s="16">
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
         <v>4.8899999999999997</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="13">
         <v>-111.63</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="13">
         <v>111.63</v>
       </c>
-      <c r="M7" s="16">
-        <v>0</v>
-      </c>
-      <c r="N7" s="16">
+      <c r="M7" s="13">
+        <v>0</v>
+      </c>
+      <c r="N7" s="13">
         <v>111.63</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="13">
         <v>91.22</v>
       </c>
-      <c r="P7" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="16">
-        <v>0</v>
-      </c>
-      <c r="R7" s="16">
+      <c r="P7" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>0</v>
+      </c>
+      <c r="R7" s="13">
         <v>202.85</v>
       </c>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="12">
         <v>10.83</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="15" t="s">
+      <c r="F8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16">
+      <c r="H8" s="12"/>
+      <c r="I8" s="13">
         <v>10.83</v>
       </c>
-      <c r="J8" s="16">
-        <v>0</v>
-      </c>
-      <c r="K8" s="16">
+      <c r="J8" s="13">
+        <v>0</v>
+      </c>
+      <c r="K8" s="13">
         <v>-122.46</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="13">
         <v>122.46</v>
       </c>
-      <c r="M8" s="16">
-        <v>0</v>
-      </c>
-      <c r="N8" s="16">
+      <c r="M8" s="13">
+        <v>0</v>
+      </c>
+      <c r="N8" s="13">
         <v>122.46</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="13">
         <v>91.22</v>
       </c>
-      <c r="P8" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="16">
-        <v>0</v>
-      </c>
-      <c r="R8" s="16">
+      <c r="P8" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>0</v>
+      </c>
+      <c r="R8" s="13">
         <v>213.68</v>
       </c>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="12">
         <v>10.61</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16">
-        <v>0</v>
-      </c>
-      <c r="J9" s="16">
+      <c r="F9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="13">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
         <v>10.61</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="13">
         <v>-122.46</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="13">
         <v>122.46</v>
       </c>
-      <c r="M9" s="16">
-        <v>0</v>
-      </c>
-      <c r="N9" s="16">
+      <c r="M9" s="13">
+        <v>0</v>
+      </c>
+      <c r="N9" s="13">
         <v>122.46</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="13">
         <v>101.83</v>
       </c>
-      <c r="P9" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="16">
-        <v>0</v>
-      </c>
-      <c r="R9" s="16">
+      <c r="P9" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>0</v>
+      </c>
+      <c r="R9" s="13">
         <v>224.29</v>
       </c>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="12">
         <v>8.98</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="16">
-        <v>0</v>
-      </c>
-      <c r="J10" s="16">
+      <c r="F10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="13">
+        <v>0</v>
+      </c>
+      <c r="J10" s="13">
         <v>8.98</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="13">
         <v>-122.46</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="13">
         <v>122.46</v>
       </c>
-      <c r="M10" s="16">
-        <v>0</v>
-      </c>
-      <c r="N10" s="16">
+      <c r="M10" s="13">
+        <v>0</v>
+      </c>
+      <c r="N10" s="13">
         <v>122.46</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10" s="13">
         <v>110.81</v>
       </c>
-      <c r="P10" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="16">
-        <v>0</v>
-      </c>
-      <c r="R10" s="16">
+      <c r="P10" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>0</v>
+      </c>
+      <c r="R10" s="13">
         <v>233.27</v>
       </c>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
     </row>
     <row r="12" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>36</v>
       </c>
       <c r="F12"/>
     </row>
     <row r="13" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="14">
         <v>86.33</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="14">
         <v>33.799999999999997</v>
       </c>
       <c r="F13"/>
     </row>
     <row r="14" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="17">
-        <v>0</v>
-      </c>
-      <c r="E14" s="17">
+      <c r="D14" s="14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="14">
         <v>77.83</v>
       </c>
       <c r="F14"/>
     </row>
     <row r="15" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="D15" s="17">
-        <v>0</v>
-      </c>
-      <c r="E15" s="17">
+      <c r="D15" s="14">
+        <v>0</v>
+      </c>
+      <c r="E15" s="14">
         <v>10.83</v>
       </c>
       <c r="F15"/>
     </row>
     <row r="16" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="14">
         <v>4.8899999999999997</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="14">
         <v>0</v>
       </c>
       <c r="F16"/>
     </row>
     <row r="17" spans="3:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="14">
         <v>10.61</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="14">
         <v>0</v>
       </c>
       <c r="F17"/>
     </row>
     <row r="18" spans="3:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="14">
         <v>8.98</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="14">
         <v>0</v>
       </c>
       <c r="F18"/>
     </row>
     <row r="19" spans="3:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="14">
         <v>110.81</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="14">
         <v>122.46</v>
       </c>
       <c r="F19"/>
@@ -9776,13 +9747,13 @@
     </row>
     <row r="24" spans="3:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C24"/>
-      <c r="D24" s="18"/>
+      <c r="D24" s="15"/>
       <c r="E24"/>
       <c r="F24"/>
     </row>
     <row r="25" spans="3:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C25"/>
-      <c r="D25" s="18"/>
+      <c r="D25" s="15"/>
       <c r="E25"/>
       <c r="F25"/>
     </row>
@@ -9808,220 +9779,211 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="10"/>
-    <col min="3" max="3" width="12" style="10" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="10" customWidth="1"/>
-    <col min="5" max="6" width="8.44140625" style="10" customWidth="1"/>
-    <col min="7" max="8" width="9.109375" style="10"/>
-    <col min="9" max="11" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="11.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.109375" style="10"/>
+    <col min="1" max="2" width="9.109375" style="9"/>
+    <col min="3" max="3" width="12" style="9" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="10" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" style="9" customWidth="1"/>
+    <col min="7" max="8" width="9.109375" style="9"/>
+    <col min="9" max="11" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56" t="s">
+      <c r="J1" s="49"/>
+      <c r="K1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56" t="s">
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56" t="s">
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="56"/>
-      <c r="S1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
+      <c r="R1" s="49"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="14" t="s">
+      <c r="J2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="14" t="s">
+      <c r="L2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="14" t="s">
+      <c r="O2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
+      <c r="R2" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="12">
         <v>4424</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="15" t="s">
+      <c r="F3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I3" s="20">
-        <v>0</v>
-      </c>
-      <c r="J3" s="20">
+      <c r="I3" s="16">
+        <v>0</v>
+      </c>
+      <c r="J3" s="16">
         <v>4424</v>
       </c>
-      <c r="K3" s="20">
-        <v>0</v>
-      </c>
-      <c r="L3" s="20">
-        <v>0</v>
-      </c>
-      <c r="M3" s="20">
-        <v>0</v>
-      </c>
-      <c r="N3" s="20">
-        <v>0</v>
-      </c>
-      <c r="O3" s="20">
+      <c r="K3" s="16">
+        <v>0</v>
+      </c>
+      <c r="L3" s="16">
+        <v>0</v>
+      </c>
+      <c r="M3" s="16">
+        <v>0</v>
+      </c>
+      <c r="N3" s="16">
+        <v>0</v>
+      </c>
+      <c r="O3" s="16">
         <v>4424</v>
       </c>
-      <c r="P3" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="20">
-        <v>0</v>
-      </c>
-      <c r="R3" s="20">
+      <c r="P3" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>0</v>
+      </c>
+      <c r="R3" s="16">
         <v>4424</v>
       </c>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
     </row>
     <row r="6" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>36</v>
       </c>
       <c r="F6"/>
     </row>
     <row r="7" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="17">
         <v>4424</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="17">
         <v>0</v>
       </c>
       <c r="F7"/>
     </row>
     <row r="8" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="17">
         <v>4424</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="17">
         <v>0</v>
       </c>
       <c r="F8"/>
@@ -10082,13 +10044,13 @@
     </row>
     <row r="18" spans="3:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C18"/>
-      <c r="D18" s="18"/>
+      <c r="D18" s="15"/>
       <c r="E18"/>
       <c r="F18"/>
     </row>
     <row r="19" spans="3:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C19"/>
-      <c r="D19" s="18"/>
+      <c r="D19" s="15"/>
       <c r="E19"/>
       <c r="F19"/>
     </row>
@@ -10108,586 +10070,576 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="10"/>
-    <col min="3" max="3" width="12.6640625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="10" customWidth="1"/>
-    <col min="5" max="6" width="8.44140625" style="10" customWidth="1"/>
-    <col min="7" max="8" width="9.109375" style="10"/>
-    <col min="9" max="11" width="10.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.109375" style="10"/>
+    <col min="1" max="2" width="9.109375" style="9"/>
+    <col min="3" max="3" width="12.6640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="9" customWidth="1"/>
+    <col min="5" max="6" width="8.44140625" style="9" customWidth="1"/>
+    <col min="7" max="8" width="9.109375" style="9"/>
+    <col min="9" max="11" width="10.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56" t="s">
+      <c r="J1" s="49"/>
+      <c r="K1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56" t="s">
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56" t="s">
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="56"/>
-      <c r="S1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
+      <c r="R1" s="49"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="14" t="s">
+      <c r="J2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="14" t="s">
+      <c r="L2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="14" t="s">
+      <c r="O2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
+      <c r="R2" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="12">
         <v>163</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="13">
         <v>81.5</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="13">
         <v>81.5</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="13">
         <v>81.5</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="13">
         <v>-81.5</v>
       </c>
-      <c r="M3" s="16">
-        <v>0</v>
-      </c>
-      <c r="N3" s="16">
+      <c r="M3" s="13">
+        <v>0</v>
+      </c>
+      <c r="N3" s="13">
         <v>81.5</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="13">
         <v>81.5</v>
       </c>
-      <c r="P3" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="16">
+      <c r="P3" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="13">
         <v>163</v>
       </c>
-      <c r="R3" s="16">
-        <v>0</v>
-      </c>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
+      <c r="R3" s="13">
+        <v>0</v>
+      </c>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="12">
         <v>101</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="15" t="s">
+      <c r="F4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16">
+      <c r="H4" s="12"/>
+      <c r="I4" s="13">
         <v>50.5</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="13">
         <v>50.5</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="13">
         <v>31</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="13">
         <v>-31</v>
       </c>
-      <c r="M4" s="16">
-        <v>0</v>
-      </c>
-      <c r="N4" s="16">
+      <c r="M4" s="13">
+        <v>0</v>
+      </c>
+      <c r="N4" s="13">
         <v>132</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="13">
         <v>132</v>
       </c>
-      <c r="P4" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="16">
+      <c r="P4" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="13">
         <v>163</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="13">
         <v>101</v>
       </c>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="12">
         <v>85</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="15" t="s">
+      <c r="F5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="16">
+      <c r="H5" s="12"/>
+      <c r="I5" s="13">
         <v>17</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="13">
         <v>68</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="13">
         <v>14</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="13">
         <v>-14</v>
       </c>
-      <c r="M5" s="16">
-        <v>0</v>
-      </c>
-      <c r="N5" s="16">
+      <c r="M5" s="13">
+        <v>0</v>
+      </c>
+      <c r="N5" s="13">
         <v>149</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="13">
         <v>200</v>
       </c>
-      <c r="P5" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="16">
+      <c r="P5" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="13">
         <v>163</v>
       </c>
-      <c r="R5" s="16">
+      <c r="R5" s="13">
         <v>186</v>
       </c>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="12">
         <v>35</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="16">
+      <c r="H6" s="12"/>
+      <c r="I6" s="13">
         <v>17.5</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="13">
         <v>17.5</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="13">
         <v>31.5</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="13">
         <v>-31.5</v>
       </c>
-      <c r="M6" s="16">
-        <v>0</v>
-      </c>
-      <c r="N6" s="16">
+      <c r="M6" s="13">
+        <v>0</v>
+      </c>
+      <c r="N6" s="13">
         <v>166.5</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="13">
         <v>217.5</v>
       </c>
-      <c r="P6" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="16">
+      <c r="P6" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="13">
         <v>198</v>
       </c>
-      <c r="R6" s="16">
+      <c r="R6" s="13">
         <v>186</v>
       </c>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="12">
         <v>61.6</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16">
-        <v>0</v>
-      </c>
-      <c r="J7" s="16">
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
         <v>61.6</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="13">
         <v>31.5</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="13">
         <v>-31.5</v>
       </c>
-      <c r="M7" s="16">
-        <v>0</v>
-      </c>
-      <c r="N7" s="16">
+      <c r="M7" s="13">
+        <v>0</v>
+      </c>
+      <c r="N7" s="13">
         <v>166.5</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="13">
         <v>279.10000000000002</v>
       </c>
-      <c r="P7" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="16">
+      <c r="P7" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="13">
         <v>198</v>
       </c>
-      <c r="R7" s="16">
+      <c r="R7" s="13">
         <v>247.6</v>
       </c>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="12">
         <v>25.8</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16">
-        <v>0</v>
-      </c>
-      <c r="J8" s="16">
+      <c r="F8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="13">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
         <v>25.8</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="13">
         <v>31.5</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="13">
         <v>-31.5</v>
       </c>
-      <c r="M8" s="16">
-        <v>0</v>
-      </c>
-      <c r="N8" s="16">
+      <c r="M8" s="13">
+        <v>0</v>
+      </c>
+      <c r="N8" s="13">
         <v>166.5</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="13">
         <v>304.89999999999998</v>
       </c>
-      <c r="P8" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="16">
+      <c r="P8" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="13">
         <v>198</v>
       </c>
-      <c r="R8" s="16">
+      <c r="R8" s="13">
         <v>273.39999999999998</v>
       </c>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="12">
         <v>8.8800000000000008</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16">
-        <v>0</v>
-      </c>
-      <c r="J9" s="16">
+      <c r="F9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="13">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
         <v>8.8800000000000008</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="13">
         <v>31.5</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="13">
         <v>-31.5</v>
       </c>
-      <c r="M9" s="16">
-        <v>0</v>
-      </c>
-      <c r="N9" s="16">
+      <c r="M9" s="13">
+        <v>0</v>
+      </c>
+      <c r="N9" s="13">
         <v>166.5</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="13">
         <v>313.77999999999997</v>
       </c>
-      <c r="P9" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="16">
+      <c r="P9" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="13">
         <v>198</v>
       </c>
-      <c r="R9" s="16">
+      <c r="R9" s="13">
         <v>282.27999999999997</v>
       </c>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
     </row>
     <row r="12" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>36</v>
       </c>
       <c r="F12"/>
     </row>
     <row r="13" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="14">
         <v>161.80000000000001</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="14">
         <v>85</v>
       </c>
       <c r="F13"/>
     </row>
     <row r="14" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="14">
         <v>151.97999999999999</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="14">
         <v>81.5</v>
       </c>
       <c r="F14"/>
     </row>
     <row r="15" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="14">
         <v>313.77999999999997</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="14">
         <v>166.5</v>
       </c>
       <c r="F15"/>
@@ -10742,13 +10694,13 @@
     </row>
     <row r="24" spans="3:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C24"/>
-      <c r="D24" s="18"/>
+      <c r="D24" s="15"/>
       <c r="E24"/>
       <c r="F24"/>
     </row>
     <row r="25" spans="3:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C25"/>
-      <c r="D25" s="18"/>
+      <c r="D25" s="15"/>
       <c r="E25"/>
       <c r="F25"/>
     </row>
@@ -10781,468 +10733,458 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="10"/>
-    <col min="3" max="3" width="12.6640625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="10" customWidth="1"/>
-    <col min="5" max="6" width="8.44140625" style="10" customWidth="1"/>
-    <col min="7" max="8" width="9.109375" style="10"/>
-    <col min="9" max="11" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="11.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.109375" style="10"/>
+    <col min="1" max="2" width="9.109375" style="9"/>
+    <col min="3" max="3" width="12.6640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="9" customWidth="1"/>
+    <col min="5" max="6" width="8.44140625" style="9" customWidth="1"/>
+    <col min="7" max="8" width="9.109375" style="9"/>
+    <col min="9" max="11" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56" t="s">
+      <c r="J1" s="49"/>
+      <c r="K1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56" t="s">
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56" t="s">
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="56"/>
-      <c r="S1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
+      <c r="R1" s="49"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="14" t="s">
+      <c r="J2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="14" t="s">
+      <c r="L2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="14" t="s">
+      <c r="O2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
+      <c r="R2" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="12">
         <v>888</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="15" t="s">
+      <c r="F3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="I3" s="20">
-        <v>0</v>
-      </c>
-      <c r="J3" s="20">
+      <c r="I3" s="16">
+        <v>0</v>
+      </c>
+      <c r="J3" s="16">
         <v>888</v>
       </c>
-      <c r="K3" s="20">
-        <v>0</v>
-      </c>
-      <c r="L3" s="20">
-        <v>0</v>
-      </c>
-      <c r="M3" s="20">
-        <v>0</v>
-      </c>
-      <c r="N3" s="20">
-        <v>0</v>
-      </c>
-      <c r="O3" s="20">
+      <c r="K3" s="16">
+        <v>0</v>
+      </c>
+      <c r="L3" s="16">
+        <v>0</v>
+      </c>
+      <c r="M3" s="16">
+        <v>0</v>
+      </c>
+      <c r="N3" s="16">
+        <v>0</v>
+      </c>
+      <c r="O3" s="16">
         <v>888</v>
       </c>
-      <c r="P3" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="20">
-        <v>0</v>
-      </c>
-      <c r="R3" s="20">
+      <c r="P3" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>0</v>
+      </c>
+      <c r="R3" s="16">
         <v>888</v>
       </c>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="12">
         <v>6991</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="20">
-        <v>0</v>
-      </c>
-      <c r="J4" s="20">
+      <c r="F4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="16">
+        <v>0</v>
+      </c>
+      <c r="J4" s="16">
         <v>6991</v>
       </c>
-      <c r="K4" s="20">
-        <v>0</v>
-      </c>
-      <c r="L4" s="20">
-        <v>0</v>
-      </c>
-      <c r="M4" s="20">
-        <v>0</v>
-      </c>
-      <c r="N4" s="20">
-        <v>0</v>
-      </c>
-      <c r="O4" s="20">
+      <c r="K4" s="16">
+        <v>0</v>
+      </c>
+      <c r="L4" s="16">
+        <v>0</v>
+      </c>
+      <c r="M4" s="16">
+        <v>0</v>
+      </c>
+      <c r="N4" s="16">
+        <v>0</v>
+      </c>
+      <c r="O4" s="16">
         <v>7879</v>
       </c>
-      <c r="P4" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="20">
-        <v>0</v>
-      </c>
-      <c r="R4" s="20">
+      <c r="P4" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>0</v>
+      </c>
+      <c r="R4" s="16">
         <v>7879</v>
       </c>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="12">
         <v>6900</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="20">
-        <v>0</v>
-      </c>
-      <c r="J5" s="20">
+      <c r="F5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="16">
+        <v>0</v>
+      </c>
+      <c r="J5" s="16">
         <v>6900</v>
       </c>
-      <c r="K5" s="20">
-        <v>0</v>
-      </c>
-      <c r="L5" s="20">
-        <v>0</v>
-      </c>
-      <c r="M5" s="20">
-        <v>0</v>
-      </c>
-      <c r="N5" s="20">
-        <v>0</v>
-      </c>
-      <c r="O5" s="20">
+      <c r="K5" s="16">
+        <v>0</v>
+      </c>
+      <c r="L5" s="16">
+        <v>0</v>
+      </c>
+      <c r="M5" s="16">
+        <v>0</v>
+      </c>
+      <c r="N5" s="16">
+        <v>0</v>
+      </c>
+      <c r="O5" s="16">
         <v>14779</v>
       </c>
-      <c r="P5" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="20">
-        <v>0</v>
-      </c>
-      <c r="R5" s="20">
+      <c r="P5" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>0</v>
+      </c>
+      <c r="R5" s="16">
         <v>14779</v>
       </c>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="12">
         <v>650</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="20">
-        <v>0</v>
-      </c>
-      <c r="J6" s="20">
+      <c r="F6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="16">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
         <v>650</v>
       </c>
-      <c r="K6" s="20">
-        <v>0</v>
-      </c>
-      <c r="L6" s="20">
-        <v>0</v>
-      </c>
-      <c r="M6" s="20">
-        <v>0</v>
-      </c>
-      <c r="N6" s="20">
-        <v>0</v>
-      </c>
-      <c r="O6" s="20">
+      <c r="K6" s="16">
+        <v>0</v>
+      </c>
+      <c r="L6" s="16">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <v>0</v>
+      </c>
+      <c r="N6" s="16">
+        <v>0</v>
+      </c>
+      <c r="O6" s="16">
         <v>15429</v>
       </c>
-      <c r="P6" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="20">
-        <v>0</v>
-      </c>
-      <c r="R6" s="20">
+      <c r="P6" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>0</v>
+      </c>
+      <c r="R6" s="16">
         <v>15429</v>
       </c>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="12">
         <v>230</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="20">
-        <v>0</v>
-      </c>
-      <c r="J7" s="20">
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="16">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
         <v>230</v>
       </c>
-      <c r="K7" s="20">
-        <v>0</v>
-      </c>
-      <c r="L7" s="20">
-        <v>0</v>
-      </c>
-      <c r="M7" s="20">
-        <v>0</v>
-      </c>
-      <c r="N7" s="20">
-        <v>0</v>
-      </c>
-      <c r="O7" s="20">
+      <c r="K7" s="16">
+        <v>0</v>
+      </c>
+      <c r="L7" s="16">
+        <v>0</v>
+      </c>
+      <c r="M7" s="16">
+        <v>0</v>
+      </c>
+      <c r="N7" s="16">
+        <v>0</v>
+      </c>
+      <c r="O7" s="16">
         <v>15659</v>
       </c>
-      <c r="P7" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="20">
-        <v>0</v>
-      </c>
-      <c r="R7" s="20">
+      <c r="P7" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>0</v>
+      </c>
+      <c r="R7" s="16">
         <v>15659</v>
       </c>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
     </row>
     <row r="9" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>36</v>
       </c>
       <c r="F9"/>
     </row>
     <row r="10" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="17">
         <v>888</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="17">
         <v>0</v>
       </c>
       <c r="F10"/>
     </row>
     <row r="11" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="17">
         <v>7550</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="17">
         <v>0</v>
       </c>
       <c r="F11"/>
     </row>
     <row r="12" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="17">
         <v>230</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="17">
         <v>0</v>
       </c>
       <c r="F12"/>
     </row>
     <row r="13" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="17">
         <v>6991</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="17">
         <v>0</v>
       </c>
       <c r="F13"/>
     </row>
     <row r="14" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="17">
         <v>15659</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="17">
         <v>0</v>
       </c>
       <c r="F14"/>
@@ -11285,13 +11227,13 @@
     </row>
     <row r="21" spans="3:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C21"/>
-      <c r="D21" s="18"/>
+      <c r="D21" s="15"/>
       <c r="E21"/>
       <c r="F21"/>
     </row>
     <row r="22" spans="3:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C22"/>
-      <c r="D22" s="18"/>
+      <c r="D22" s="15"/>
       <c r="E22"/>
       <c r="F22"/>
     </row>
@@ -11344,24 +11286,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50" t="s">
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="50"/>
+      <c r="R1" s="43"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -12031,10 +11973,10 @@
       <c r="B16" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="4">
         <v>39.979999999999997</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="4">
         <v>0</v>
       </c>
       <c r="E16" s="5"/>
@@ -12043,10 +11985,10 @@
       <c r="B17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="4">
         <v>27.34</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="4">
         <v>9.86</v>
       </c>
       <c r="E17" s="5"/>
@@ -12055,10 +11997,10 @@
       <c r="B18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="4">
         <v>12.61</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="4">
         <v>22.42</v>
       </c>
       <c r="E18" s="5"/>
@@ -12068,10 +12010,10 @@
       <c r="B19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="4">
         <v>32.020000000000003</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="4">
         <v>0</v>
       </c>
       <c r="E19" s="5"/>
@@ -12080,10 +12022,10 @@
       <c r="B20" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="4">
         <v>2.87</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="4">
         <v>0</v>
       </c>
       <c r="E20" s="5"/>
@@ -12092,10 +12034,10 @@
       <c r="B21" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="4">
         <v>25.13</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="4">
         <v>0</v>
       </c>
       <c r="E21" s="5"/>
@@ -12104,10 +12046,10 @@
       <c r="B22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="4">
         <v>95.89</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="4">
         <v>0</v>
       </c>
       <c r="E22" s="5"/>
@@ -12116,10 +12058,10 @@
       <c r="B23" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="4">
         <v>29.349999999999998</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="4">
         <v>0</v>
       </c>
       <c r="E23" s="5"/>
@@ -12232,24 +12174,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50" t="s">
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="50"/>
+      <c r="R1" s="43"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -13404,10 +13346,10 @@
       <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="4">
         <v>23.51</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="4">
         <v>37.010000000000005</v>
       </c>
       <c r="E25" s="5"/>
@@ -13416,10 +13358,10 @@
       <c r="B26" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="9">
-        <v>0</v>
-      </c>
-      <c r="D26" s="9">
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
         <v>44</v>
       </c>
       <c r="E26" s="5"/>
@@ -13428,10 +13370,10 @@
       <c r="B27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="4">
         <v>1.77</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="4">
         <v>0</v>
       </c>
       <c r="E27" s="5"/>
@@ -13441,10 +13383,10 @@
       <c r="B28" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="4">
         <v>16.440000000000001</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="4">
         <v>16.440000000000001</v>
       </c>
       <c r="E28" s="5"/>
@@ -13453,10 +13395,10 @@
       <c r="B29" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="4">
         <v>6.25</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="4">
         <v>10.719999999999999</v>
       </c>
       <c r="E29" s="5"/>
@@ -13465,10 +13407,10 @@
       <c r="B30" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C30" s="9">
-        <v>0</v>
-      </c>
-      <c r="D30" s="9">
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
         <v>7</v>
       </c>
       <c r="E30" s="5"/>
@@ -13477,10 +13419,10 @@
       <c r="B31" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C31" s="9">
-        <v>0</v>
-      </c>
-      <c r="D31" s="9">
+      <c r="C31" s="4">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4">
         <v>18.52</v>
       </c>
       <c r="E31" s="5"/>
@@ -13489,10 +13431,10 @@
       <c r="B32" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="4">
         <v>2.61</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="4">
         <v>0</v>
       </c>
       <c r="E32" s="5"/>
@@ -13605,24 +13547,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50" t="s">
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="50"/>
+      <c r="R1" s="43"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -13806,10 +13748,10 @@
       <c r="B7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="4">
         <v>19.57</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="4">
         <v>0</v>
       </c>
       <c r="E7" s="5"/>
